--- a/scripts_ProvChain/Cenario.xlsx
+++ b/scripts_ProvChain/Cenario.xlsx
@@ -5,23 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="projeto" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="orgao" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="perfil" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="horizonte" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="historico" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="alterarProjeto" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="alterarOrgao" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="alterarPerfil" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="alterarHorizonte" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="excluir" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="removerAssociacao" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="associar" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="excluidos" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="lista_blockchain" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="observacao" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="horizonte" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="historico" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="alterarProjeto" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="alterarOrgao" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="alterarObservacao" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="alterarHorizonte" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="excluir" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="excluidos" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="lista_blockchain" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="253">
   <si>
     <t xml:space="preserve">btn.lnk_projeto</t>
   </si>
@@ -113,6 +110,564 @@
     <t xml:space="preserve">enviar</t>
   </si>
   <si>
+    <t xml:space="preserve">btn.retornar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data.data_coleta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo_observacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sibcs_antigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil_taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidade_mapeamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">localizacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relacaoBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gilgai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classificacao_taxonomica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comentario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uso_atual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formacao_geologica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">litologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cronologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">material_originario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koppen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">situacao_declive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vegetacao_primaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedregosidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rochosidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drenagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relevo_local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relevo_regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">movimento_de_massa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agente_causador1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forma1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classe1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frequencia_sulcos1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profundidade_sulcos1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agente_causador2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forma2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classe2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frequencia_sulcos2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profundidade_sulcos2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descrito_coletado_por</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listar_observacoes.Listar Observações - Levantamento Semidetalhado dos Solos da Área do Sistema Integrado de Produção Agroecológica (SIPA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consultar.Consultar - SIPA 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listar_observacoes.Listar Observações - Treinamento Residência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observação Treinamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trincheira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.8865104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.3777179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SiBCS antigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Reference Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil Taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRGAS 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidade de Mapeamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Localização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relação B/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classificação Taxonomica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comentários </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserva natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formação Geológica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Litologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oligoceno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material Originário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cfc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situação do declive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caatinga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedregoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rochoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muito mal drenado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ondulado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escarpado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rastejo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eólica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ligeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocasionais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hídrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extremamente forte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rasos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anônimo da Silva e Souza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btn.texto.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btn.texto.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transicao_topografia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transicao_nitidez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limites_metodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limite_superior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transicao_superior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transicao_inferior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limite_inferior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">espessura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_cor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matiz_seco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor_seco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">croma_Seco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matiz_umido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor_umido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">croma_umido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outros_textura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outros_cascalho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estrutura_tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estrutura_grau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estrutura_tamanho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estrutura_forma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consistencia_seco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consistencia_umido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consistencia_molhada_plasticidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consistencia_molhada_pegajosidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btn.btn-toggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compressao_tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compressao_quantidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compressao_grau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friccao_quantidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friccao_tamanho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friccao_grau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerosidade_quantidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerosidade_grau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poros_quantidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poros_diametro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eflorescencia_quantidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eflorescencia_local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eflorescencia_natureza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodulos_e_concrecoes_quantidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodulos_e_concrecoes_tamanho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodulos_e_concrecoes_dureza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodulos_e_concrecoes_natureza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodulos_e_concrecoes_forma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodulos_e_concrecoes_cor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raiz_quantidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raiz_diametro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raiz_tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outros_coesao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outros_cimentacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outros_sulfeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outros_magnetismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outros_manganes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outros_carbonato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listar_horizontes.Listar Horizontes - SIPA 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consultar.Consultar - Btg3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listar_horizontes.Listar Horizontes - Observação Treinamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuneiforme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegajosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fosca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abundante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Médio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pouca a comum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poucos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muito grandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natureza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsuperfície</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MgSO4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pequeno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferruginoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irregular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Médias e grossas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fasciculadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortemente coesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortemente cimentado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulfeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extremamente Magnetico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aqui estão presentes as observações complementares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btn.voltar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historico.Histórico - Treinamento Residência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voltar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lnk_orgao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historico.Histórico - UFRJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historico.Histórico - Observação Treinamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historico.Histórico - RES01 - Adulterado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alterar.Alterar - Treinamento Residência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residência UFRRJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">btn.lnk_orgao</t>
   </si>
   <si>
@@ -143,469 +698,49 @@
     <t xml:space="preserve">motivo</t>
   </si>
   <si>
-    <t xml:space="preserve">btn.retornar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnk_orgao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consultar.Consultar - Empresa Brasileira de Pesquisa Agropecuária</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidade Federal do Rio de Janeiro</t>
+    <t xml:space="preserve">alterar.Alterar - Universidade Federal do Rio de Janeiro</t>
   </si>
   <si>
     <t xml:space="preserve">UFRJ</t>
   </si>
   <si>
-    <t xml:space="preserve">Levantamento base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prospecção inicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituição de Ensino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jose@o04.gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21) 9123-4321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fomento de pesquisa agrária</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data.data_coleta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipo_perfil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">altitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sibcs_antigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil_taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unidade_mapeamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">localizacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relacaoBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gilgai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">classificacao_taxonomica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">observacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uso_atual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formacao_geologica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">litologia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cronologia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">material_originario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">koppen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">situacao_declive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vegetacao_primaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pedregosidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rochosidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drenagem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relevo_local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relevo_regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">movimento_de_massa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agente_causador1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forma1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">classe1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frequencia_sulcos1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profundidade_sulcos1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agente_causador2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forma2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">classe2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frequencia_sulcos2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profundidade_sulcos2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrito_coletado_por</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listar_perfis.Listar Perfis - Levantamento Semidetalhado dos Solos da Área do Sistema Integrado de Produção Agroecológica (SIPA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consultar.Consultar - SIPA 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listar_perfis.Listar Perfis - Treinamento Residência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfil Treinamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trincheira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.8865104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-43.3777179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SiBCS antigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Reference Base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil Taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRGAS 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unidade de Mapeamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Localização</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relação B/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classificação Taxonomica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comentários </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reserva natural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formação Geológica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Litologia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oligoceno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material Originário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cfc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Situação do declive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caatinga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedregoso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rochoso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muito mal drenado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ondulado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escarpado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rastejo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eólica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forma 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ligeira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocasionais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profundos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hídrica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forma 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extremamente forte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rasos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anônimo da Silva e Souza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btn.texto.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btn.texto.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transicao_nome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transicao_topografia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transicao_nitidez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limites_metodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limite_superior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transicao_superior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transicao_inferior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limite_inferior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">espessura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_cor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matiz_seco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valor_seco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">croma_Seco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matiz_umido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valor_umido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">croma_umido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outros_textura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outros_cascalho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estrutura_tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estrutura_grau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estrutura_tamanho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estrutura_forma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consistencia_seco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consistencia_umido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consistencia_molhada_plasticidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consistencia_molhada_pegajosidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btn.btn-toggle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compressao_tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compressao_quantidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compressao_grau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friccao_quantidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friccao_tamanho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friccao_grau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerosidade_quantidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerosidade_grau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poros_quantidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poros_diametro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eflorescencia_quantidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eflorescencia_local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eflorescencia_natureza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nodulos_e_concrecoes_quantidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nodulos_e_concrecoes_tamanho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nodulos_e_concrecoes_dureza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nodulos_e_concrecoes_natureza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nodulos_e_concrecoes_forma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nodulos_e_concrecoes_cor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raiz_quantidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raiz_diametro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raiz_tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outros_coesao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outros_cimentacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outros_sulfeto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outros_magnetismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outros_manganes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outros_carbonato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listar_horizontes.Listar Horizontes - SIPA 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consultar.Consultar - Btg3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listar_horizontes.Listar Horizontes - Perfil Treinamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES01</t>
+    <t xml:space="preserve">O04-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levantamento base-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prospecção inicial-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituição de Ensino-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José da Silva-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jose@o04.gmail.com-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21) 9123-4321-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fomento de pesquisa agrária-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key_projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alterar.Alterar - Observação Treinamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alterar.Alterar - RES01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES01 - Adulterado</t>
   </si>
   <si>
     <t xml:space="preserve">Discontinua</t>
@@ -620,177 +755,6 @@
     <t xml:space="preserve">cascalhenta</t>
   </si>
   <si>
-    <t xml:space="preserve">Agregado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuneiforme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plastica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pegajosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fosca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abundante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Médio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pouca a comum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poucos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muito grandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natureza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subsuperfície</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MgSO4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pequeno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferruginoso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irregular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Médias e grossas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fasciculadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortemente coesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortemente cimentado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sulfeto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extremamente Magnetico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aqui estão presentes as observações complementares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btn.voltar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historico.Histórico - Treinamento Residência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voltar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historico.Histórico - UFRJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historico.Histórico - Perfil Treinamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historico.Histórico - RES01 - Adulterado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alterar.Alterar - Treinamento Residência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residência UFRRJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alterar.Alterar - Universidade Federal do Rio de Janeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O04-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Levantamento base-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prospecção inicial-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituição de Ensino-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José da Silva-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jose@o04.gmail.com-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21) 9123-4321-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fomento de pesquisa agrária-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">key_projeto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alterar.Alterar - Perfil Treinamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfil Treinamento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">alterar.Alterar - RES01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES01 - Adulterado</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sulfeto ADULTERADO</t>
   </si>
   <si>
@@ -800,31 +764,13 @@
     <t xml:space="preserve">excluir.Excluir - RES01 - Adulterado</t>
   </si>
   <si>
-    <t xml:space="preserve">excluir.Excluir - Perfil Treinamento</t>
+    <t xml:space="preserve">excluir.Excluir - Observação Treinamento</t>
   </si>
   <si>
     <t xml:space="preserve">excluir.Excluir - Treinamento Residência</t>
   </si>
   <si>
     <t xml:space="preserve">excluir.Excluir - UFRJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">associacao.Associar a Orgão(s) Executor(es) - Orgao04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excluir.Excluir - Orgao04 - Projeto 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btn.associacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">key_orgao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orgao04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projeto04</t>
   </si>
   <si>
     <t xml:space="preserve">btn.lnk_excluidos</t>
@@ -927,7 +873,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -952,7 +898,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -980,7 +934,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="1" sqref="G1 P1"/>
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1131,91 +1085,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="G1 B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>90</v>
+        <v>248</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="E2" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1232,235 +1158,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="G1 F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.87"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="G1 F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.87"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="G1 D2"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.86"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>10</v>
@@ -1475,7 +1189,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>11</v>
@@ -1483,10 +1197,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>15</v>
@@ -1501,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>2</v>
@@ -1523,196 +1237,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="G1 A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="56.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="16.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="15" style="1" width="9.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="16.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="1" width="9.22"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>1920</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AU1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BE1" activeCellId="1" sqref="G1 BE1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="116.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.14"/>
@@ -1792,7 +1326,7 @@
         <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -1804,124 +1338,124 @@
         <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="BB1" s="1" t="s">
         <v>10</v>
@@ -1941,13 +1475,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -3005,131 +2539,131 @@
         <v>13</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="N5" s="5"/>
-      <c r="O5" s="1" t="s">
-        <v>92</v>
+      <c r="O5" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="R5" s="1" t="n">
         <v>35</v>
       </c>
       <c r="S5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="AR5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AS5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AT5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AU5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AW5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AX5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AY5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="BA5" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="BB5" s="1" t="s">
         <v>15</v>
@@ -3155,15 +2689,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:CB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BP1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CB1" activeCellId="1" sqref="G1 CB1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BQ1" activeCellId="0" sqref="BQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3254,202 +2788,202 @@
         <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="AK1" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="AL1" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="0" t="s">
+      <c r="AM1" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="0" t="s">
+      <c r="AN1" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="AO1" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="AP1" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="AQ1" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="AR1" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="AS1" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="S1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="0" t="s">
+      <c r="AT1" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="U1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="0" t="s">
+      <c r="AU1" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="AV1" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="AW1" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="Y1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" s="0" t="s">
+      <c r="AX1" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="AA1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AY1" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AZ1" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="BA1" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="BB1" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="AF1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG1" s="0" t="s">
+      <c r="BC1" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="BD1" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="BE1" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="BF1" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="BG1" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="BH1" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="BI1" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="BJ1" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="BK1" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="BL1" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="BM1" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="BN1" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="BO1" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="BP1" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="AU1" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="AV1" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="AW1" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX1" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="AY1" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="AZ1" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="BA1" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="BB1" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="BC1" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="BD1" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="BE1" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="BF1" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="BG1" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="BH1" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="BI1" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="BJ1" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="BK1" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="BL1" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="BM1" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="BN1" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="BO1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="BP1" s="0" t="s">
-        <v>186</v>
-      </c>
       <c r="BQ1" s="0" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="BR1" s="0" t="s">
         <v>11</v>
@@ -3479,7 +3013,7 @@
         <v>11</v>
       </c>
       <c r="CA1" s="0" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="CB1" s="0" t="s">
         <v>11</v>
@@ -3489,17 +3023,17 @@
       <c r="A2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>88</v>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="BV2" s="0" t="n">
         <v>1</v>
@@ -3528,151 +3062,139 @@
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AC6" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD6" s="0" t="s">
-        <v>194</v>
-      </c>
       <c r="AE6" s="0" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AG6" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH6" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI6" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ6" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL6" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM6" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO6" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP6" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="AQ6" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR6" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS6" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT6" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU6" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV6" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="AW6" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX6" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY6" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ6" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="BA6" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="BB6" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="BC6" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="BD6" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="BE6" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF6" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="BG6" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="BH6" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="BI6" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="AH6" s="0" t="s">
+      <c r="BJ6" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="AI6" s="0" t="s">
+      <c r="BK6" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="AJ6" s="0" t="s">
+      <c r="BL6" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="AK6" s="0" t="s">
+      <c r="BM6" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="AL6" s="0" t="s">
+      <c r="BN6" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="AM6" s="0" t="s">
+      <c r="BO6" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="BP6" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="BQ6" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="AO6" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="AP6" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="AQ6" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="AR6" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="AS6" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="AT6" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="AU6" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="AV6" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW6" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX6" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="AY6" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ6" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="BA6" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="BB6" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="BC6" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="BD6" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="BE6" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="BF6" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="BG6" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="BH6" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="BI6" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="BJ6" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="BK6" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="BL6" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="BM6" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="BN6" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="BO6" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP6" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="BQ6" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="BR6" s="6" t="n">
+      <c r="BR6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="BS6" s="1" t="s">
@@ -3688,6 +3210,13 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BR7" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD12" s="8"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3701,15 +3230,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="G1 D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3750,7 +3279,7 @@
         <v>11</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>11</v>
@@ -3763,7 +3292,7 @@
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
       <c r="D3" s="4" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>15</v>
@@ -3778,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>2</v>
@@ -3786,12 +3315,12 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0"/>
       <c r="D4" s="4" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>15</v>
@@ -3806,7 +3335,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>2</v>
@@ -3817,11 +3346,11 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" s="4" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>15</v>
@@ -3836,24 +3365,24 @@
         <v>2</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>15</v>
@@ -3868,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>2</v>
@@ -3885,7 +3414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3893,7 +3422,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="1" sqref="G1 J3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3947,13 +3476,13 @@
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>21</v>
@@ -3975,40 +3504,40 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4021,7 +3550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4029,7 +3558,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="G1 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4048,7 +3577,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>9</v>
@@ -4057,34 +3586,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>213</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="N1" s="0" t="s">
         <v>8</v>
@@ -4096,43 +3625,43 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>25</v>
@@ -4152,15 +3681,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AX5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AQ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AX6" activeCellId="1" sqref="G1 AX6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4230,130 +3759,130 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>10</v>
@@ -4374,10 +3903,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>5</v>
@@ -4385,126 +3914,126 @@
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>249</v>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>80</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="AK5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="AL5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="AM5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="AN5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="AR5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AS5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AT5" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>15</v>
@@ -4516,6 +4045,488 @@
         <v>25</v>
       </c>
       <c r="AX5" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:BU6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BP1" activeCellId="0" sqref="BP1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="46.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="26.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="9.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="12.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="13.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="30.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="31.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="15.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="21.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="20.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="16.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="22.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="16.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="20.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="30.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="28.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="26.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="25.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="23.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="20.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="22.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="16.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="95.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="7.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="9.85"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU1" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW1" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY1" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ1" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA1" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="BB1" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC1" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD1" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="BE1" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="BF1" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="BG1" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH1" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="BI1" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="BJ1" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="BL1" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="BO1" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="BP1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH6" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI6" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ6" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL6" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN6" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO6" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP6" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ6" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR6" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS6" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT6" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU6" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV6" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW6" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="AX6" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY6" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ6" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="BA6" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB6" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC6" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="BD6" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE6" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF6" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="BG6" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="BH6" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="BI6" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="BJ6" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="BK6" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="BL6" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="BM6" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="BN6" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO6" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="BP6" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="BQ6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BS6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="BU6" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4535,466 +4546,91 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BT6"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BP1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BT7" activeCellId="1" sqref="G1 BT7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="46.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="6.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="9.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="6.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="13.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="14.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="13.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="6.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="17.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="16.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="17.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="30.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="31.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="15.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="21.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="16.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="20.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="16.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="14.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="22.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="16.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="20.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="30.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="28.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="26.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="25.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="23.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="11.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="16.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="20.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="22.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="16.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="0" width="95.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="6.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="7.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="6.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG1" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH1" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI1" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ1" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK1" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL1" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="AM1" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN1" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO1" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP1" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ1" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR1" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS1" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT1" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="AV1" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="AW1" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="AX1" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="AY1" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="AZ1" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="BA1" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="BB1" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="BC1" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="BD1" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="BE1" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="BF1" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="BG1" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="BH1" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="BI1" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="BJ1" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="BK1" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="BL1" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="BM1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="BN1" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="BO1" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BS1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="BT1" s="0" t="s">
-        <v>11</v>
+      <c r="D2" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB6" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC6" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF6" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG6" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH6" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI6" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ6" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="AK6" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM6" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN6" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO6" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP6" s="0" t="s">
+      <c r="B3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="AQ6" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="AR6" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS6" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT6" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="AU6" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="AV6" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="AW6" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX6" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY6" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="AZ6" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="BA6" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="BB6" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="BC6" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="BD6" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="BE6" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="BF6" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="BG6" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="BH6" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="BI6" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="BJ6" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="BK6" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="BL6" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="BM6" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN6" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="BO6" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="BP6" s="6" t="n">
+      <c r="B5" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="BQ6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="BR6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="BT6" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
